--- a/unity-business-innovation/src/main/resources/template/darb.xlsx
+++ b/unity-business-innovation/src/main/resources/template/darb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201852E9-F1E6-AA44-A71C-11D576EB3C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAB1CA1-81A3-3B4D-94FB-090F6FEF3552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
+    <workbookView xWindow="4980" yWindow="2460" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,14 +177,13 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF05CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,65 +318,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +398,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF05CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,149 +713,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA7698-188B-F24F-8969-11ED59FA492A}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:24" ht="39" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="5" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="17">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="6"/>
       <c r="J4" s="1" t="s">
         <v>24</v>
@@ -848,20 +867,24 @@
         <v>26</v>
       </c>
       <c r="M4" s="6"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
@@ -874,19 +897,15 @@
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="R2:R4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unity-business-innovation/src/main/resources/template/darb.xlsx
+++ b/unity-business-innovation/src/main/resources/template/darb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAB1CA1-81A3-3B4D-94FB-090F6FEF3552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82388F-8000-F544-96A6-EE50BD98D343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="2460" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -300,15 +300,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -325,6 +316,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,55 +376,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,149 +705,149 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:24" ht="39" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="2" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="17">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
@@ -866,21 +857,30 @@
       <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
@@ -897,15 +897,6 @@
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="Q2:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unity-business-innovation/src/main/resources/template/darb.xlsx
+++ b/unity-business-innovation/src/main/resources/template/darb.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinhuan/Documents/jkWorkspace/innovationpublish-api/unity-business-innovation/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC82388F-8000-F544-96A6-EE50BD98D343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B5C3B-2CB8-7349-9540-F328F625DC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4980" yWindow="2460" windowWidth="28240" windowHeight="17440" xr2:uid="{3792454A-560D-2844-808A-BE8389129DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -176,7 +176,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
@@ -316,6 +315,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -334,15 +357,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,25 +375,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +704,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -739,115 +738,115 @@
       <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="17">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
@@ -857,30 +856,21 @@
       <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
     <mergeCell ref="U2:U4"/>
@@ -897,6 +887,15 @@
     <mergeCell ref="W2:W4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="Q2:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
